--- a/docs/designs/dbDocument/dbDocument.xlsx
+++ b/docs/designs/dbDocument/dbDocument.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>Shall work for 1000+ tables, 1000+ views, 1000+ sp's</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>Phases</t>
+  </si>
+  <si>
+    <t>Documentation for database</t>
   </si>
 </sst>
 </file>
@@ -448,11 +451,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D25"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -462,6 +463,11 @@
     <col min="4" max="4" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+    </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
